--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -467,11 +467,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1448,7 +1448,63 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
+    <row r="34" ht="41.4" customHeight="1">
+      <c r="A34" t="n">
+        <v>963</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>import and print variable x from module_1 (without from, for module_1 use an alias of "m")</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>import module_1 as m\nprint(m.x)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="27.6" customHeight="1">
+      <c r="A35" t="n">
+        <v>964</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>import and print variable x from module_1 (with from, use an alias "y" for variable "x")</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>from module_1 import x as y\nprint(y)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,54 +149,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,24 +535,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A31" ySplit="1"/>
+      <selection activeCell="C36" pane="bottomLeft" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -666,7 +734,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -724,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -753,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -811,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -896,7 +964,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -924,7 +992,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -952,7 +1020,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -980,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1036,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1064,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1092,7 +1160,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1120,7 +1188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="23">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1153,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="24">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1186,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="25">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1214,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="26">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1247,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="27">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1280,7 +1348,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="28">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1308,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="29">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1336,7 +1404,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="30">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1364,7 +1432,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="31">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1392,7 +1460,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1420,7 +1488,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="33">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1448,7 +1516,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="34">
       <c r="A34" t="n">
         <v>963</v>
       </c>
@@ -1476,7 +1544,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="35">
       <c r="A35" t="n">
         <v>964</v>
       </c>
@@ -1504,10 +1572,9 @@
         </is>
       </c>
     </row>
-    <row r="36"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1519,7 +1586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1531,7 +1598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1542,7 +1609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,122 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -535,24 +467,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A31" ySplit="1"/>
-      <selection activeCell="C36" pane="bottomLeft" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -734,7 +666,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -763,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -792,7 +724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -821,7 +753,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -879,7 +811,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -964,7 +896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -992,7 +924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1020,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1048,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1104,7 +1036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1132,7 +1064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1160,7 +1092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1188,7 +1120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="23">
+    <row r="23" ht="69" customHeight="1">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1221,7 +1153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="24">
+    <row r="24" ht="82.8" customHeight="1">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1254,7 +1186,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="25">
+    <row r="25" ht="82.8" customHeight="1">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1282,7 +1214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="26">
+    <row r="26" ht="55.2" customHeight="1">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1315,7 +1247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="27">
+    <row r="27" ht="69" customHeight="1">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1348,7 +1280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="28">
+    <row r="28" ht="82.8" customHeight="1">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1376,7 +1308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="29">
+    <row r="29" ht="82.8" customHeight="1">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1404,7 +1336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="30">
+    <row r="30" ht="82.8" customHeight="1">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1432,7 +1364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="31">
+    <row r="31" ht="82.8" customHeight="1">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1460,7 +1392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1488,7 +1420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="33">
+    <row r="33" ht="41.4" customHeight="1">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1516,7 +1448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="34">
+    <row r="34" ht="41.4" customHeight="1">
       <c r="A34" t="n">
         <v>963</v>
       </c>
@@ -1544,7 +1476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
+    <row r="35" ht="27.6" customHeight="1">
       <c r="A35" t="n">
         <v>964</v>
       </c>
@@ -1572,9 +1504,10 @@
         </is>
       </c>
     </row>
+    <row r="36"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1586,7 +1519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1598,7 +1531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1609,7 +1542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,54 +149,122 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,22 +537,22 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
+      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -521,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -550,7 +618,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -579,7 +647,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -666,7 +734,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -695,7 +763,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -724,7 +792,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -753,7 +821,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -782,7 +850,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -811,7 +879,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -840,7 +908,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -868,7 +936,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -896,7 +964,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -924,7 +992,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -952,7 +1020,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -980,7 +1048,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1036,7 +1104,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1064,7 +1132,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="21">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1092,7 +1160,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1120,7 +1188,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="23">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1153,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="24">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1186,7 +1254,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="25">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1214,7 +1282,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="55.2" customHeight="1">
+    <row customHeight="1" ht="55.2" r="26">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1247,7 +1315,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="69" customHeight="1">
+    <row customHeight="1" ht="69" r="27">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1280,7 +1348,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="28">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1308,7 +1376,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="29">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1336,7 +1404,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="30">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1364,7 +1432,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="82.8" customHeight="1">
+    <row customHeight="1" ht="82.8" r="31">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1392,7 +1460,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1420,7 +1488,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="33">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1448,7 +1516,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="41.4" customHeight="1">
+    <row customHeight="1" ht="41.4" r="34">
       <c r="A34" t="n">
         <v>963</v>
       </c>
@@ -1476,7 +1544,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="35">
       <c r="A35" t="n">
         <v>964</v>
       </c>
@@ -1504,10 +1572,37 @@
         </is>
       </c>
     </row>
-    <row r="36"/>
+    <row customHeight="1" ht="55.2" r="36">
+      <c r="A36" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>module_1 content:\n==========\nprint('hello')\n\nimport module_1\nimport module_1\n\nWhat will be printed?</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1519,7 +1614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1531,7 +1626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1542,7 +1637,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,122 +149,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -535,24 +467,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A32" ySplit="1"/>
-      <selection activeCell="E37" pane="bottomLeft" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -589,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>520</v>
       </c>
@@ -618,7 +550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>521</v>
       </c>
@@ -647,7 +579,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>522</v>
       </c>
@@ -734,7 +666,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>525</v>
       </c>
@@ -763,7 +695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>526</v>
       </c>
@@ -792,7 +724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>527</v>
       </c>
@@ -821,7 +753,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>528</v>
       </c>
@@ -850,7 +782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>529</v>
       </c>
@@ -879,7 +811,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>530</v>
       </c>
@@ -908,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>531</v>
       </c>
@@ -936,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>532</v>
       </c>
@@ -964,7 +896,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>533</v>
       </c>
@@ -992,7 +924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>534</v>
       </c>
@@ -1020,7 +952,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" t="n">
         <v>535</v>
       </c>
@@ -1048,7 +980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>536</v>
       </c>
@@ -1104,7 +1036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>538</v>
       </c>
@@ -1132,7 +1064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="21">
+    <row r="21" ht="27.6" customHeight="1">
       <c r="A21" t="n">
         <v>539</v>
       </c>
@@ -1160,7 +1092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>540</v>
       </c>
@@ -1188,7 +1120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="23">
+    <row r="23" ht="69" customHeight="1">
       <c r="A23" t="n">
         <v>735</v>
       </c>
@@ -1221,7 +1153,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="24">
+    <row r="24" ht="82.8" customHeight="1">
       <c r="A24" t="n">
         <v>736</v>
       </c>
@@ -1254,7 +1186,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="25">
+    <row r="25" ht="82.8" customHeight="1">
       <c r="A25" t="n">
         <v>737</v>
       </c>
@@ -1282,7 +1214,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="26">
+    <row r="26" ht="55.2" customHeight="1">
       <c r="A26" t="n">
         <v>738</v>
       </c>
@@ -1315,7 +1247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="69" r="27">
+    <row r="27" ht="69" customHeight="1">
       <c r="A27" t="n">
         <v>739</v>
       </c>
@@ -1348,7 +1280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="28">
+    <row r="28" ht="82.8" customHeight="1">
       <c r="A28" t="n">
         <v>740</v>
       </c>
@@ -1376,7 +1308,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="29">
+    <row r="29" ht="82.8" customHeight="1">
       <c r="A29" t="n">
         <v>741</v>
       </c>
@@ -1404,7 +1336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="30">
+    <row r="30" ht="82.8" customHeight="1">
       <c r="A30" t="n">
         <v>742</v>
       </c>
@@ -1432,7 +1364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="82.8" r="31">
+    <row r="31" ht="82.8" customHeight="1">
       <c r="A31" t="n">
         <v>759</v>
       </c>
@@ -1460,7 +1392,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>743</v>
       </c>
@@ -1488,7 +1420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="33">
+    <row r="33" ht="41.4" customHeight="1">
       <c r="A33" t="n">
         <v>744</v>
       </c>
@@ -1516,7 +1448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="41.4" r="34">
+    <row r="34" ht="41.4" customHeight="1">
       <c r="A34" t="n">
         <v>963</v>
       </c>
@@ -1544,7 +1476,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="35">
+    <row r="35" ht="27.6" customHeight="1">
       <c r="A35" t="n">
         <v>964</v>
       </c>
@@ -1572,7 +1504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="55.2" r="36">
+    <row r="36" ht="55.2" customHeight="1">
       <c r="A36" t="n">
         <v>1095</v>
       </c>
@@ -1600,9 +1532,10 @@
         </is>
       </c>
     </row>
+    <row r="37"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1614,7 +1547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1626,7 +1559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1637,7 +1570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
@@ -1532,7 +1600,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
@@ -1600,6 +1532,7 @@
         </is>
       </c>
     </row>
+    <row r="37"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1532,7 +1600,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1600,6 +1532,7 @@
         </is>
       </c>
     </row>
+    <row r="37"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +603,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Python Module is t***** file with python statements</t>
+          <t>Python Module is t*** file with python statements</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -564,7 +632,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Python Module is text f***** with python statements</t>
+          <t>Python Module is text f*** with python statements</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -622,7 +690,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Python Module file e***** with .py extension</t>
+          <t>Python Module file e*** with .py extension</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -651,7 +719,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Python Module file ends with .***** extension</t>
+          <t>Python Module file ends with .* extension</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -709,7 +777,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in i***** mode enables printing the variables' values</t>
+          <t>Executing a module in i********** mode enables printing the variables' values</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -738,7 +806,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in interactive m***** enables printing the variables' values</t>
+          <t>Executing a module in interactive m*** enables printing the variables' values</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
@@ -767,7 +835,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in interactive mode e***** printing the variables' values</t>
+          <t>Executing a module in interactive mode e******* printing the variables' values</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
@@ -796,7 +864,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in interactive mode enables printing the v***** values</t>
+          <t>Executing a module in interactive mode enables printing the v***************** values</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
@@ -966,7 +1034,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>Command "import" load another module and g***** access to its content</t>
+          <t>Command "import" load another module and g**** access to its content</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1050,7 +1118,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process e***** the imported module (once per session)</t>
+          <t>Importing Module process e********* the imported module (once per session)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1106,7 +1174,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process executes the imported module (once per s*****)</t>
+          <t>Importing Module process executes the imported module (once per s******)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">

--- a/Questions/Programming Language/Python/Basic/Module.xlsx
+++ b/Questions/Programming Language/Python/Basic/Module.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -777,7 +709,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in i********** mode enables printing the variables' values</t>
+          <t>Executing a module in i***** mode enables printing the variables' values</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -835,7 +767,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in interactive mode e******* printing the variables' values</t>
+          <t>Executing a module in interactive mode e***** printing the variables' values</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
@@ -864,7 +796,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Executing a module in interactive mode enables printing the v***************** values</t>
+          <t>Executing a module in interactive mode enables printing the v***** values</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
@@ -1118,7 +1050,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process e********* the imported module (once per session)</t>
+          <t>Importing Module process e***** the imported module (once per session)</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1174,7 +1106,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Importing Module process executes the imported module (once per s******)</t>
+          <t>Importing Module process executes the imported module (once per s*****)</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
